--- a/scripts/Falling Model/adl_training_data.xlsx
+++ b/scripts/Falling Model/adl_training_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>D01_SA01_R01.csv</t>
   </si>
@@ -30,21 +30,6 @@
     <t>D04_SA01_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA01_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA01_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA01_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA01_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA01_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA01_R01.csv</t>
   </si>
   <si>
@@ -102,21 +87,6 @@
     <t>D04_SA02_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA02_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA02_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA02_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA02_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA02_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA02_R01.csv</t>
   </si>
   <si>
@@ -174,21 +144,6 @@
     <t>D04_SA03_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA03_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA03_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA03_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA03_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA03_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA03_R01.csv</t>
   </si>
   <si>
@@ -246,21 +201,6 @@
     <t>D04_SA04_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA04_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA04_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA04_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA04_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA04_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA04_R01.csv</t>
   </si>
   <si>
@@ -318,21 +258,6 @@
     <t>D04_SA05_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA05_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA05_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA05_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA05_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA05_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA05_R01.csv</t>
   </si>
   <si>
@@ -390,21 +315,6 @@
     <t>D04_SA06_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA06_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA06_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA06_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA06_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA06_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA06_R01.csv</t>
   </si>
   <si>
@@ -462,21 +372,6 @@
     <t>D04_SA07_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA07_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA07_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA07_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA07_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA07_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA07_R01.csv</t>
   </si>
   <si>
@@ -534,21 +429,6 @@
     <t>D04_SA08_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA08_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA08_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA08_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA08_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA08_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA08_R01.csv</t>
   </si>
   <si>
@@ -606,21 +486,6 @@
     <t>D04_SA09_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA09_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA09_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA09_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA09_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA09_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA09_R01.csv</t>
   </si>
   <si>
@@ -678,21 +543,6 @@
     <t>D04_SA10_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA10_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA10_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA10_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA10_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA10_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA10_R01.csv</t>
   </si>
   <si>
@@ -750,21 +600,6 @@
     <t>D04_SA11_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA11_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA11_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA11_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA11_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA11_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA11_R01.csv</t>
   </si>
   <si>
@@ -822,21 +657,6 @@
     <t>D04_SA12_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA12_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA12_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA12_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA12_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA12_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA12_R01.csv</t>
   </si>
   <si>
@@ -894,21 +714,6 @@
     <t>D04_SA13_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA13_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA13_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA13_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA13_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA13_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA13_R01.csv</t>
   </si>
   <si>
@@ -966,21 +771,6 @@
     <t>D04_SA14_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA14_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA14_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA14_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA14_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA14_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA14_R01.csv</t>
   </si>
   <si>
@@ -1038,21 +828,6 @@
     <t>D04_SA15_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA15_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA15_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA15_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA15_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA15_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA15_R01.csv</t>
   </si>
   <si>
@@ -1110,21 +885,6 @@
     <t>D04_SA16_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA16_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA16_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA16_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA16_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA16_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA16_R01.csv</t>
   </si>
   <si>
@@ -1182,21 +942,6 @@
     <t>D04_SA17_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA17_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA17_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA17_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA17_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA17_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA17_R01.csv</t>
   </si>
   <si>
@@ -1254,21 +999,6 @@
     <t>D04_SA18_R01.csv</t>
   </si>
   <si>
-    <t>D14_SA18_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA18_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA18_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA18_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA18_R05.csv</t>
-  </si>
-  <si>
     <t>D15_SA18_R01.csv</t>
   </si>
   <si>
@@ -1324,21 +1054,6 @@
   </si>
   <si>
     <t>D04_SA19_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA19_R01.csv</t>
-  </si>
-  <si>
-    <t>D14_SA19_R02.csv</t>
-  </si>
-  <si>
-    <t>D14_SA19_R03.csv</t>
-  </si>
-  <si>
-    <t>D14_SA19_R04.csv</t>
-  </si>
-  <si>
-    <t>D14_SA19_R05.csv</t>
   </si>
   <si>
     <t>D15_SA19_R01.csv</t>
@@ -1715,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A456"/>
+  <dimension ref="A1:A361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3526,481 +3241,6 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
-        <v>455</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4008,7 +3248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A456"/>
+  <dimension ref="A1:A361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4041,2257 +3281,1782 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>82392</v>
+        <v>82393</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>84791</v>
+        <v>84792</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>87189</v>
+        <v>87191</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>89588</v>
+        <v>89590</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>91987</v>
+        <v>91989</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>94386</v>
+        <v>94388</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>96785</v>
+        <v>96787</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>99184</v>
+        <v>99186</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>101583</v>
+        <v>101585</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>103982</v>
+        <v>103984</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>106381</v>
+        <v>106383</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>108780</v>
+        <v>108782</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>111179</v>
+        <v>111180</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>113578</v>
+        <v>113579</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>115977</v>
+        <v>115978</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>118376</v>
+        <v>135976</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>120775</v>
+        <v>155975</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>123173</v>
+        <v>175974</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>125572</v>
+        <v>195973</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>127971</v>
+        <v>198372</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>147969</v>
+        <v>200771</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>167968</v>
+        <v>203170</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>187967</v>
+        <v>205569</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>207966</v>
+        <v>207968</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>210364</v>
+        <v>210367</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>212763</v>
+        <v>212766</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>215162</v>
+        <v>215165</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>217561</v>
+        <v>217564</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>219960</v>
+        <v>219963</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>222359</v>
+        <v>222362</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>224758</v>
+        <v>224761</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>227157</v>
+        <v>227159</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>229556</v>
+        <v>229558</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>231955</v>
+        <v>231957</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>234354</v>
+        <v>251955</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>236753</v>
+        <v>271954</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>239152</v>
+        <v>291953</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>241551</v>
+        <v>311951</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>243950</v>
+        <v>314350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>246349</v>
+        <v>316749</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>248748</v>
+        <v>319148</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>251146</v>
+        <v>321547</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>253545</v>
+        <v>323946</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>255944</v>
+        <v>326345</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>275942</v>
+        <v>328744</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>295941</v>
+        <v>331143</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>315940</v>
+        <v>333542</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>335938</v>
+        <v>335941</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>338337</v>
+        <v>338340</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>340736</v>
+        <v>340739</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>343135</v>
+        <v>343138</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>345533</v>
+        <v>345537</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>347932</v>
+        <v>347936</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>350331</v>
+        <v>367934</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>352730</v>
+        <v>387933</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>355129</v>
+        <v>407932</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>357528</v>
+        <v>427931</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>359927</v>
+        <v>430330</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>362326</v>
+        <v>432729</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>364725</v>
+        <v>435128</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>367124</v>
+        <v>437527</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>369523</v>
+        <v>439926</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>371922</v>
+        <v>442325</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>374321</v>
+        <v>444724</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>376720</v>
+        <v>447123</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>379119</v>
+        <v>449522</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>381518</v>
+        <v>451921</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>383917</v>
+        <v>454320</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>403915</v>
+        <v>456719</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>423914</v>
+        <v>459117</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>443913</v>
+        <v>461516</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>463912</v>
+        <v>463915</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>466311</v>
+        <v>483913</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>468710</v>
+        <v>503911</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>471109</v>
+        <v>523910</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>473508</v>
+        <v>543907</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>475907</v>
+        <v>546306</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>478306</v>
+        <v>548705</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>480705</v>
+        <v>551104</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>483104</v>
+        <v>553503</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>485503</v>
+        <v>555902</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>487902</v>
+        <v>558301</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>490301</v>
+        <v>560700</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>492700</v>
+        <v>563099</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>495099</v>
+        <v>565498</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>497498</v>
+        <v>567897</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>499897</v>
+        <v>570294</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>502296</v>
+        <v>572693</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>504695</v>
+        <v>575092</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>507093</v>
+        <v>577489</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>509492</v>
+        <v>579888</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>511891</v>
+        <v>599886</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>531889</v>
+        <v>619885</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>551887</v>
+        <v>639884</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>571886</v>
+        <v>659883</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>591883</v>
+        <v>662282</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>594282</v>
+        <v>664681</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>596681</v>
+        <v>667080</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>599080</v>
+        <v>669479</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>601478</v>
+        <v>671878</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>603877</v>
+        <v>674276</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>606276</v>
+        <v>676675</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>608675</v>
+        <v>679074</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>611074</v>
+        <v>681473</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>613473</v>
+        <v>683872</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>615872</v>
+        <v>686270</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>618271</v>
+        <v>688669</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>620670</v>
+        <v>691067</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>623069</v>
+        <v>693466</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>625468</v>
+        <v>695865</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>627867</v>
+        <v>715863</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>630264</v>
+        <v>735862</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>632663</v>
+        <v>755861</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>635062</v>
+        <v>775859</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>637459</v>
+        <v>778257</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>639858</v>
+        <v>780656</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>659856</v>
+        <v>783055</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>679855</v>
+        <v>785454</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>699854</v>
+        <v>787853</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>719853</v>
+        <v>790251</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>722252</v>
+        <v>792650</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>724649</v>
+        <v>795049</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>727048</v>
+        <v>797448</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>729446</v>
+        <v>799847</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>731845</v>
+        <v>802246</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>734244</v>
+        <v>804645</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>736643</v>
+        <v>807044</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>739042</v>
+        <v>809443</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>741441</v>
+        <v>811842</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>743840</v>
+        <v>831840</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>746238</v>
+        <v>851838</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>748637</v>
+        <v>871837</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>751036</v>
+        <v>891836</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>753435</v>
+        <v>894235</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>755834</v>
+        <v>896634</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>758232</v>
+        <v>899033</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>760631</v>
+        <v>901432</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>763029</v>
+        <v>903831</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>765428</v>
+        <v>906230</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>767827</v>
+        <v>908629</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>787825</v>
+        <v>911028</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>807824</v>
+        <v>913427</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>827823</v>
+        <v>915826</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>847821</v>
+        <v>918225</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>850218</v>
+        <v>920624</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>852617</v>
+        <v>923023</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>855016</v>
+        <v>925422</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>857415</v>
+        <v>927821</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>859814</v>
+        <v>947819</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>862212</v>
+        <v>967817</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>864611</v>
+        <v>987816</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>867010</v>
+        <v>1007815</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>869409</v>
+        <v>1010214</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>871808</v>
+        <v>1012613</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>874206</v>
+        <v>1015012</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>876605</v>
+        <v>1017411</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>879004</v>
+        <v>1019810</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>881403</v>
+        <v>1022208</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>883802</v>
+        <v>1024607</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>886201</v>
+        <v>1027006</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>888600</v>
+        <v>1029405</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>890999</v>
+        <v>1031804</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>893398</v>
+        <v>1034203</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>895797</v>
+        <v>1036602</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>915795</v>
+        <v>1039001</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>935793</v>
+        <v>1041400</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>955792</v>
+        <v>1043799</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>975791</v>
+        <v>1063797</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>978190</v>
+        <v>1083796</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>980589</v>
+        <v>1103795</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>982986</v>
+        <v>1123794</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>985382</v>
+        <v>1126193</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>987769</v>
+        <v>1128592</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>990168</v>
+        <v>1130991</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>992567</v>
+        <v>1133390</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>994966</v>
+        <v>1135789</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>997365</v>
+        <v>1138188</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>999764</v>
+        <v>1140587</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1002163</v>
+        <v>1142986</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>1004562</v>
+        <v>1145385</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>1006961</v>
+        <v>1147783</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>1009360</v>
+        <v>1150182</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>1011759</v>
+        <v>1152581</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>1014158</v>
+        <v>1154980</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1016557</v>
+        <v>1157379</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>1018956</v>
+        <v>1159778</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>1021355</v>
+        <v>1179776</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1023754</v>
+        <v>1199775</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1043752</v>
+        <v>1219773</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1063750</v>
+        <v>1239772</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1083749</v>
+        <v>1242171</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1103748</v>
+        <v>1244570</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1106147</v>
+        <v>1246969</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1108546</v>
+        <v>1249368</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>1110945</v>
+        <v>1251767</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1113344</v>
+        <v>1254166</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>1115743</v>
+        <v>1256565</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>1118142</v>
+        <v>1258964</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1120541</v>
+        <v>1261363</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>1122940</v>
+        <v>1263762</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>1125339</v>
+        <v>1266161</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>1127738</v>
+        <v>1268560</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>1130136</v>
+        <v>1270959</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>1132535</v>
+        <v>1273358</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>1134934</v>
+        <v>1275757</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>1137333</v>
+        <v>1295755</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1139732</v>
+        <v>1315754</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1142131</v>
+        <v>1335752</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1144530</v>
+        <v>1355750</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1146929</v>
+        <v>1358149</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1149328</v>
+        <v>1360548</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>1151727</v>
+        <v>1362947</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>1171725</v>
+        <v>1365346</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>1191724</v>
+        <v>1367745</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1211723</v>
+        <v>1370144</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1231722</v>
+        <v>1372543</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1234121</v>
+        <v>1374942</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>1236520</v>
+        <v>1377341</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>1238919</v>
+        <v>1379740</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>1241318</v>
+        <v>1382139</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1243717</v>
+        <v>1384538</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>1246116</v>
+        <v>1386937</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>1248515</v>
+        <v>1389336</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>1250914</v>
+        <v>1391735</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>1253313</v>
+        <v>1411733</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>1255712</v>
+        <v>1431732</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>1258111</v>
+        <v>1451731</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>1260510</v>
+        <v>1471730</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>1262909</v>
+        <v>1474129</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>1265308</v>
+        <v>1476528</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>1267706</v>
+        <v>1478927</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>1270105</v>
+        <v>1481326</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>1272504</v>
+        <v>1483725</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>1274903</v>
+        <v>1486124</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>1277302</v>
+        <v>1488523</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>1279701</v>
+        <v>1490922</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1299699</v>
+        <v>1493321</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>1319698</v>
+        <v>1495720</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1339696</v>
+        <v>1498119</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>1359695</v>
+        <v>1500518</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>1362094</v>
+        <v>1502917</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>1364493</v>
+        <v>1505316</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>1366892</v>
+        <v>1507715</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1369291</v>
+        <v>1527713</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>1371690</v>
+        <v>1547712</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>1374089</v>
+        <v>1567711</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>1376488</v>
+        <v>1587709</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>1378887</v>
+        <v>1590108</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1381286</v>
+        <v>1592507</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>1383685</v>
+        <v>1594906</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>1386084</v>
+        <v>1597305</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>1388483</v>
+        <v>1599704</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>1390882</v>
+        <v>1602103</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>1393281</v>
+        <v>1604502</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>1395680</v>
+        <v>1606901</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>1398079</v>
+        <v>1609300</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1400478</v>
+        <v>1611699</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>1402877</v>
+        <v>1614098</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>1405276</v>
+        <v>1616497</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>1407675</v>
+        <v>1618896</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1427673</v>
+        <v>1621295</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1447672</v>
+        <v>1623694</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1467670</v>
+        <v>1643692</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>1487668</v>
+        <v>1663691</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>1490067</v>
+        <v>1683688</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>1492466</v>
+        <v>1703686</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>1494865</v>
+        <v>1706085</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>1497264</v>
+        <v>1708484</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1499663</v>
+        <v>1710883</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>1502062</v>
+        <v>1713282</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>1504461</v>
+        <v>1715681</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>1506860</v>
+        <v>1718080</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>1509259</v>
+        <v>1720479</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>1511658</v>
+        <v>1722878</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1514057</v>
+        <v>1725277</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1516456</v>
+        <v>1727675</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>1518855</v>
+        <v>1730073</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1521254</v>
+        <v>1732472</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>1523653</v>
+        <v>1734871</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>1526052</v>
+        <v>1737270</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>1528451</v>
+        <v>1739669</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>1530850</v>
+        <v>1759667</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1533249</v>
+        <v>1779666</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1535648</v>
+        <v>1799665</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>1555646</v>
+        <v>1819663</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>1575645</v>
+        <v>1822062</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1595644</v>
+        <v>1824461</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>1615643</v>
+        <v>1826860</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>1618042</v>
+        <v>1829259</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>1620441</v>
+        <v>1831658</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>1622840</v>
+        <v>1834057</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>1625235</v>
+        <v>1836456</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>1627621</v>
+        <v>1838855</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>1630020</v>
+        <v>1841254</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>1632419</v>
+        <v>1843653</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>1634818</v>
+        <v>1846052</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>1637217</v>
+        <v>1848451</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>1639616</v>
+        <v>1850850</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1642015</v>
+        <v>1853249</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>1644414</v>
+        <v>1855648</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1646813</v>
+        <v>1875646</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1649212</v>
+        <v>1895645</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1651611</v>
+        <v>1915644</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>1654010</v>
+        <v>1935643</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>1656409</v>
+        <v>1938042</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>1658808</v>
+        <v>1940441</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>1661207</v>
+        <v>1942840</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>1663606</v>
+        <v>1945239</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>1683604</v>
+        <v>1947638</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>1703603</v>
+        <v>1950037</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>1723602</v>
+        <v>1952436</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>1743600</v>
+        <v>1954835</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>1745999</v>
+        <v>1957234</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>1748398</v>
+        <v>1959633</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>1750797</v>
+        <v>1962032</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>1753196</v>
+        <v>1964431</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1755595</v>
+        <v>1966830</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>1757994</v>
+        <v>1969229</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>1760393</v>
+        <v>1971628</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>1762792</v>
+        <v>1991626</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>1765191</v>
+        <v>2011625</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>1767590</v>
+        <v>2031624</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>1769989</v>
+        <v>2051623</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1772388</v>
+        <v>2054022</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>1774787</v>
+        <v>2056421</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1777186</v>
+        <v>2058820</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1779585</v>
+        <v>2061219</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>1781984</v>
+        <v>2063618</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>1784383</v>
+        <v>2066017</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>1786782</v>
+        <v>2068416</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>1789181</v>
+        <v>2070815</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>1791580</v>
+        <v>2073214</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>1811578</v>
+        <v>2075613</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>1831577</v>
+        <v>2078012</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>1851574</v>
+        <v>2080411</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>1871572</v>
+        <v>2082810</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>1873971</v>
+        <v>2085209</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>1876370</v>
+        <v>2087608</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>1878769</v>
+        <v>2107606</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>1881168</v>
+        <v>2127605</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>1883567</v>
+        <v>2147603</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>1885966</v>
+        <v>2167602</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>1888365</v>
+        <v>2170001</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>1890764</v>
+        <v>2172400</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1893163</v>
+        <v>2174799</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>1895562</v>
+        <v>2177198</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>1897961</v>
+        <v>2179597</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>1900360</v>
+        <v>2181994</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>1902759</v>
+        <v>2184393</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1905158</v>
+        <v>2186792</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>1907556</v>
+        <v>2189191</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>1909954</v>
+        <v>2191590</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>1912353</v>
+        <v>2193989</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>1914752</v>
+        <v>2196388</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>1917151</v>
+        <v>2198787</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>1919550</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362">
-        <v>1939548</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363">
-        <v>1959547</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364">
-        <v>1979546</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365">
-        <v>1999544</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366">
-        <v>2001940</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367">
-        <v>2004338</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368">
-        <v>2006735</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369">
-        <v>2009133</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370">
-        <v>2011532</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371">
-        <v>2013931</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372">
-        <v>2016330</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373">
-        <v>2018729</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374">
-        <v>2021128</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375">
-        <v>2023527</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376">
-        <v>2025926</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377">
-        <v>2028325</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378">
-        <v>2030724</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379">
-        <v>2033123</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380">
-        <v>2035522</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381">
-        <v>2037921</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382">
-        <v>2040320</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383">
-        <v>2042719</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384">
-        <v>2045118</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385">
-        <v>2047517</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386">
-        <v>2067515</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387">
-        <v>2087514</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388">
-        <v>2107513</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389">
-        <v>2127512</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390">
-        <v>2129911</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391">
-        <v>2132310</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392">
-        <v>2134709</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393">
-        <v>2137108</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394">
-        <v>2139507</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
-        <v>2141906</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
-        <v>2144305</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
-        <v>2146704</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
-        <v>2149103</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
-        <v>2151502</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
-        <v>2153901</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
-        <v>2156300</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
-        <v>2158699</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403">
-        <v>2161098</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404">
-        <v>2163497</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405">
-        <v>2165896</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406">
-        <v>2168295</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407">
-        <v>2170694</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408">
-        <v>2173093</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409">
-        <v>2175492</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410">
-        <v>2195490</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411">
-        <v>2215489</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412">
-        <v>2235488</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413">
-        <v>2255487</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414">
-        <v>2257886</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415">
-        <v>2260285</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
-        <v>2262684</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
-        <v>2265083</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
-        <v>2267482</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
-        <v>2269881</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420">
-        <v>2272280</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421">
-        <v>2274679</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422">
-        <v>2277078</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423">
-        <v>2279477</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424">
-        <v>2281876</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425">
-        <v>2284275</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426">
-        <v>2286674</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427">
-        <v>2289073</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428">
-        <v>2291472</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429">
-        <v>2293871</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430">
-        <v>2296270</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431">
-        <v>2298669</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432">
-        <v>2301068</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433">
-        <v>2303467</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434">
-        <v>2323465</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435">
-        <v>2343464</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436">
-        <v>2363462</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437">
-        <v>2383461</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438">
-        <v>2385859</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439">
-        <v>2388258</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440">
-        <v>2390657</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441">
-        <v>2393056</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442">
-        <v>2395455</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443">
-        <v>2397854</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444">
-        <v>2400253</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445">
-        <v>2402652</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446">
-        <v>2405051</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447">
-        <v>2407450</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448">
-        <v>2409847</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449">
-        <v>2412246</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450">
-        <v>2414645</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451">
-        <v>2417044</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452">
-        <v>2419443</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453">
-        <v>2421842</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454">
-        <v>2424241</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455">
-        <v>2426640</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456">
-        <v>2429039</v>
+        <v>2201186</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +5066,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A456"/>
+  <dimension ref="A1:A361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6329,2262 +5094,1787 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>82391</v>
+        <v>82392</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>84790</v>
+        <v>84791</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>87188</v>
+        <v>87190</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>89587</v>
+        <v>89589</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>91986</v>
+        <v>91988</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>94385</v>
+        <v>94387</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>96784</v>
+        <v>96786</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>99183</v>
+        <v>99185</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>101582</v>
+        <v>101584</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>103981</v>
+        <v>103983</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>106380</v>
+        <v>106382</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>108779</v>
+        <v>108781</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>111178</v>
+        <v>111179</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>113577</v>
+        <v>113578</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>115976</v>
+        <v>115977</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>118375</v>
+        <v>135975</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>120774</v>
+        <v>155974</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>123172</v>
+        <v>175973</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>125571</v>
+        <v>195972</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>127970</v>
+        <v>198371</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>147968</v>
+        <v>200770</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>167967</v>
+        <v>203169</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>187966</v>
+        <v>205568</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>207965</v>
+        <v>207967</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>210363</v>
+        <v>210366</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>212762</v>
+        <v>212765</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>215161</v>
+        <v>215164</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>217560</v>
+        <v>217563</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>219959</v>
+        <v>219962</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>222358</v>
+        <v>222361</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>224757</v>
+        <v>224760</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>227156</v>
+        <v>227158</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>229555</v>
+        <v>229557</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>231954</v>
+        <v>231956</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>234353</v>
+        <v>251954</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>236752</v>
+        <v>271953</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>239151</v>
+        <v>291952</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>241550</v>
+        <v>311950</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>243949</v>
+        <v>314349</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>246348</v>
+        <v>316748</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>248747</v>
+        <v>319147</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>251145</v>
+        <v>321546</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>253544</v>
+        <v>323945</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>255943</v>
+        <v>326344</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>275941</v>
+        <v>328743</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>295940</v>
+        <v>331142</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>315939</v>
+        <v>333541</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>335937</v>
+        <v>335940</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>338336</v>
+        <v>338339</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>340735</v>
+        <v>340738</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>343134</v>
+        <v>343137</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>345532</v>
+        <v>345536</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>347931</v>
+        <v>347935</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>350330</v>
+        <v>367933</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>352729</v>
+        <v>387932</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>355128</v>
+        <v>407931</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>357527</v>
+        <v>427930</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>359926</v>
+        <v>430329</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>362325</v>
+        <v>432728</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>364724</v>
+        <v>435127</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>367123</v>
+        <v>437526</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>369522</v>
+        <v>439925</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>371921</v>
+        <v>442324</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>374320</v>
+        <v>444723</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>376719</v>
+        <v>447122</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>379118</v>
+        <v>449521</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>381517</v>
+        <v>451920</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>383916</v>
+        <v>454319</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>403914</v>
+        <v>456718</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>423913</v>
+        <v>459116</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>443912</v>
+        <v>461515</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>463911</v>
+        <v>463914</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>466310</v>
+        <v>483912</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>468709</v>
+        <v>503910</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>471108</v>
+        <v>523909</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>473507</v>
+        <v>543906</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>475906</v>
+        <v>546305</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>478305</v>
+        <v>548704</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>480704</v>
+        <v>551103</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>483103</v>
+        <v>553502</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>485502</v>
+        <v>555901</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>487901</v>
+        <v>558300</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>490300</v>
+        <v>560699</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>492699</v>
+        <v>563098</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>495098</v>
+        <v>565497</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>497497</v>
+        <v>567896</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>499896</v>
+        <v>570293</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>502295</v>
+        <v>572692</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>504694</v>
+        <v>575091</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>507092</v>
+        <v>577488</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>509491</v>
+        <v>579887</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>511890</v>
+        <v>599885</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>531888</v>
+        <v>619884</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>551886</v>
+        <v>639883</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>571885</v>
+        <v>659882</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>591882</v>
+        <v>662281</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>594281</v>
+        <v>664680</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>596680</v>
+        <v>667079</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>599079</v>
+        <v>669478</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>601477</v>
+        <v>671877</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>603876</v>
+        <v>674275</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>606275</v>
+        <v>676674</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>608674</v>
+        <v>679073</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>611073</v>
+        <v>681472</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>613472</v>
+        <v>683871</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>615871</v>
+        <v>686269</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>618270</v>
+        <v>688668</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>620669</v>
+        <v>691066</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>623068</v>
+        <v>693465</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>625467</v>
+        <v>695864</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>627866</v>
+        <v>715862</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>630263</v>
+        <v>735861</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>632662</v>
+        <v>755860</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>635061</v>
+        <v>775858</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>637458</v>
+        <v>778256</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>639857</v>
+        <v>780655</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>659855</v>
+        <v>783054</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>679854</v>
+        <v>785453</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>699853</v>
+        <v>787852</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>719852</v>
+        <v>790250</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>722251</v>
+        <v>792649</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>724648</v>
+        <v>795048</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>727047</v>
+        <v>797447</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>729445</v>
+        <v>799846</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>731844</v>
+        <v>802245</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>734243</v>
+        <v>804644</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>736642</v>
+        <v>807043</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>739041</v>
+        <v>809442</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>741440</v>
+        <v>811841</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>743839</v>
+        <v>831839</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>746237</v>
+        <v>851837</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>748636</v>
+        <v>871836</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>751035</v>
+        <v>891835</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>753434</v>
+        <v>894234</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>755833</v>
+        <v>896633</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>758231</v>
+        <v>899032</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>760630</v>
+        <v>901431</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>763028</v>
+        <v>903830</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>765427</v>
+        <v>906229</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>767826</v>
+        <v>908628</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>787824</v>
+        <v>911027</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>807823</v>
+        <v>913426</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>827822</v>
+        <v>915825</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>847820</v>
+        <v>918224</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>850217</v>
+        <v>920623</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>852616</v>
+        <v>923022</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>855015</v>
+        <v>925421</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>857414</v>
+        <v>927820</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>859813</v>
+        <v>947818</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>862211</v>
+        <v>967816</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>864610</v>
+        <v>987815</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>867009</v>
+        <v>1007814</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>869408</v>
+        <v>1010213</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>871807</v>
+        <v>1012612</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>874205</v>
+        <v>1015011</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>876604</v>
+        <v>1017410</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>879003</v>
+        <v>1019809</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>881402</v>
+        <v>1022207</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>883801</v>
+        <v>1024606</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>886200</v>
+        <v>1027005</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>888599</v>
+        <v>1029404</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>890998</v>
+        <v>1031803</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>893397</v>
+        <v>1034202</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>895796</v>
+        <v>1036601</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>915794</v>
+        <v>1039000</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>935792</v>
+        <v>1041399</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>955791</v>
+        <v>1043798</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>975790</v>
+        <v>1063796</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>978189</v>
+        <v>1083795</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>980588</v>
+        <v>1103794</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>982985</v>
+        <v>1123793</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>985381</v>
+        <v>1126192</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>987768</v>
+        <v>1128591</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>990167</v>
+        <v>1130990</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>992566</v>
+        <v>1133389</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>994965</v>
+        <v>1135788</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>997364</v>
+        <v>1138187</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>999763</v>
+        <v>1140586</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>1002162</v>
+        <v>1142985</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1004561</v>
+        <v>1145384</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>1006960</v>
+        <v>1147782</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>1009359</v>
+        <v>1150181</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>1011758</v>
+        <v>1152580</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>1014157</v>
+        <v>1154979</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>1016556</v>
+        <v>1157378</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1018955</v>
+        <v>1159777</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>1021354</v>
+        <v>1179775</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>1023753</v>
+        <v>1199774</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1043751</v>
+        <v>1219772</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1063749</v>
+        <v>1239771</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1083748</v>
+        <v>1242170</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1103747</v>
+        <v>1244569</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1106146</v>
+        <v>1246968</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1108545</v>
+        <v>1249367</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1110944</v>
+        <v>1251766</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>1113343</v>
+        <v>1254165</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1115742</v>
+        <v>1256564</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>1118141</v>
+        <v>1258963</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>1120540</v>
+        <v>1261362</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1122939</v>
+        <v>1263761</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>1125338</v>
+        <v>1266160</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>1127737</v>
+        <v>1268559</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>1130135</v>
+        <v>1270958</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>1132534</v>
+        <v>1273357</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>1134933</v>
+        <v>1275756</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>1137332</v>
+        <v>1295754</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>1139731</v>
+        <v>1315753</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1142130</v>
+        <v>1335751</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1144529</v>
+        <v>1355749</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1146928</v>
+        <v>1358148</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1149327</v>
+        <v>1360547</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1151726</v>
+        <v>1362946</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>1171724</v>
+        <v>1365345</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>1191723</v>
+        <v>1367744</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>1211722</v>
+        <v>1370143</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1231721</v>
+        <v>1372542</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1234120</v>
+        <v>1374941</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1236519</v>
+        <v>1377340</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>1238918</v>
+        <v>1379739</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>1241317</v>
+        <v>1382138</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>1243716</v>
+        <v>1384537</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1246115</v>
+        <v>1386936</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>1248514</v>
+        <v>1389335</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>1250913</v>
+        <v>1391734</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>1253312</v>
+        <v>1411732</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>1255711</v>
+        <v>1431731</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>1258110</v>
+        <v>1451730</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>1260509</v>
+        <v>1471729</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>1262908</v>
+        <v>1474128</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>1265307</v>
+        <v>1476527</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>1267705</v>
+        <v>1478926</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>1270104</v>
+        <v>1481325</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>1272503</v>
+        <v>1483724</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>1274902</v>
+        <v>1486123</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>1277301</v>
+        <v>1488522</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>1279700</v>
+        <v>1490921</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>1299698</v>
+        <v>1493320</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1319697</v>
+        <v>1495719</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>1339695</v>
+        <v>1498118</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1359694</v>
+        <v>1500517</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>1362093</v>
+        <v>1502916</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>1364492</v>
+        <v>1505315</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>1366891</v>
+        <v>1507714</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>1369290</v>
+        <v>1527712</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1371689</v>
+        <v>1547711</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>1374088</v>
+        <v>1567710</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>1376487</v>
+        <v>1587708</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>1378886</v>
+        <v>1590107</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>1381285</v>
+        <v>1592506</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1383684</v>
+        <v>1594905</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>1386083</v>
+        <v>1597304</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>1388482</v>
+        <v>1599703</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>1390881</v>
+        <v>1602102</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>1393280</v>
+        <v>1604501</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>1395679</v>
+        <v>1606900</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>1398078</v>
+        <v>1609299</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>1400477</v>
+        <v>1611698</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1402876</v>
+        <v>1614097</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>1405275</v>
+        <v>1616496</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>1407674</v>
+        <v>1618895</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>1427672</v>
+        <v>1621294</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1447671</v>
+        <v>1623693</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1467669</v>
+        <v>1643691</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1487667</v>
+        <v>1663690</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>1490066</v>
+        <v>1683687</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>1492465</v>
+        <v>1703685</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>1494864</v>
+        <v>1706084</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>1497263</v>
+        <v>1708483</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>1499662</v>
+        <v>1710882</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1502061</v>
+        <v>1713281</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>1504460</v>
+        <v>1715680</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>1506859</v>
+        <v>1718079</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>1509258</v>
+        <v>1720478</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>1511657</v>
+        <v>1722877</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>1514056</v>
+        <v>1725276</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1516455</v>
+        <v>1727674</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1518854</v>
+        <v>1730072</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>1521253</v>
+        <v>1732471</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1523652</v>
+        <v>1734870</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>1526051</v>
+        <v>1737269</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>1528450</v>
+        <v>1739668</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>1530849</v>
+        <v>1759666</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>1533248</v>
+        <v>1779665</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1535647</v>
+        <v>1799664</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1555645</v>
+        <v>1819662</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>1575644</v>
+        <v>1822061</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>1595643</v>
+        <v>1824460</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1615642</v>
+        <v>1826859</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>1618041</v>
+        <v>1829258</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>1620440</v>
+        <v>1831657</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>1622839</v>
+        <v>1834056</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>1625234</v>
+        <v>1836455</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>1627620</v>
+        <v>1838854</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>1630019</v>
+        <v>1841253</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>1632418</v>
+        <v>1843652</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>1634817</v>
+        <v>1846051</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>1637216</v>
+        <v>1848450</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>1639615</v>
+        <v>1850849</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>1642014</v>
+        <v>1853248</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1644413</v>
+        <v>1855647</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>1646812</v>
+        <v>1875645</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1649211</v>
+        <v>1895644</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1651610</v>
+        <v>1915643</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1654009</v>
+        <v>1935642</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>1656408</v>
+        <v>1938041</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>1658807</v>
+        <v>1940440</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>1661206</v>
+        <v>1942839</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>1663605</v>
+        <v>1945238</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>1683603</v>
+        <v>1947637</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>1703602</v>
+        <v>1950036</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>1723601</v>
+        <v>1952435</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>1743599</v>
+        <v>1954834</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>1745998</v>
+        <v>1957233</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>1748397</v>
+        <v>1959632</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>1750796</v>
+        <v>1962031</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>1753195</v>
+        <v>1964430</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>1755594</v>
+        <v>1966829</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1757993</v>
+        <v>1969228</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>1760392</v>
+        <v>1971627</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>1762791</v>
+        <v>1991625</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>1765190</v>
+        <v>2011624</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>1767589</v>
+        <v>2031623</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>1769988</v>
+        <v>2051622</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>1772387</v>
+        <v>2054021</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1774786</v>
+        <v>2056420</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>1777185</v>
+        <v>2058819</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1779584</v>
+        <v>2061218</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1781983</v>
+        <v>2063617</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>1784382</v>
+        <v>2066016</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>1786781</v>
+        <v>2068415</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>1789180</v>
+        <v>2070814</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>1791579</v>
+        <v>2073213</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>1811577</v>
+        <v>2075612</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>1831576</v>
+        <v>2078011</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>1851573</v>
+        <v>2080410</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>1871571</v>
+        <v>2082809</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>1873970</v>
+        <v>2085208</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>1876369</v>
+        <v>2087607</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>1878768</v>
+        <v>2107605</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>1881167</v>
+        <v>2127604</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>1883566</v>
+        <v>2147602</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>1885965</v>
+        <v>2167601</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>1888364</v>
+        <v>2170000</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>1890763</v>
+        <v>2172399</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>1893162</v>
+        <v>2174798</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1895561</v>
+        <v>2177197</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>1897960</v>
+        <v>2179596</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>1900359</v>
+        <v>2181993</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>1902758</v>
+        <v>2184392</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>1905157</v>
+        <v>2186791</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1907555</v>
+        <v>2189190</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>1909953</v>
+        <v>2191589</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>1912352</v>
+        <v>2193988</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>1914751</v>
+        <v>2196387</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>1917150</v>
+        <v>2198786</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>1919549</v>
+        <v>2201185</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>1939547</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362">
-        <v>1959546</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363">
-        <v>1979545</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364">
-        <v>1999543</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365">
-        <v>2001939</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366">
-        <v>2004337</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367">
-        <v>2006734</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368">
-        <v>2009132</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369">
-        <v>2011531</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370">
-        <v>2013930</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371">
-        <v>2016329</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372">
-        <v>2018728</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373">
-        <v>2021127</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374">
-        <v>2023526</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375">
-        <v>2025925</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376">
-        <v>2028324</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377">
-        <v>2030723</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378">
-        <v>2033122</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379">
-        <v>2035521</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380">
-        <v>2037920</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381">
-        <v>2040319</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382">
-        <v>2042718</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383">
-        <v>2045117</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384">
-        <v>2047516</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385">
-        <v>2067514</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386">
-        <v>2087513</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387">
-        <v>2107512</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388">
-        <v>2127511</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389">
-        <v>2129910</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390">
-        <v>2132309</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391">
-        <v>2134708</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392">
-        <v>2137107</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393">
-        <v>2139506</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394">
-        <v>2141905</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
-        <v>2144304</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
-        <v>2146703</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
-        <v>2149102</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
-        <v>2151501</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
-        <v>2153900</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
-        <v>2156299</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
-        <v>2158698</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
-        <v>2161097</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403">
-        <v>2163496</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404">
-        <v>2165895</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405">
-        <v>2168294</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406">
-        <v>2170693</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407">
-        <v>2173092</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408">
-        <v>2175491</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409">
-        <v>2195489</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410">
-        <v>2215488</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411">
-        <v>2235487</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412">
-        <v>2255486</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413">
-        <v>2257885</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414">
-        <v>2260284</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415">
-        <v>2262683</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
-        <v>2265082</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
-        <v>2267481</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
-        <v>2269880</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
-        <v>2272279</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420">
-        <v>2274678</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421">
-        <v>2277077</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422">
-        <v>2279476</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423">
-        <v>2281875</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424">
-        <v>2284274</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425">
-        <v>2286673</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426">
-        <v>2289072</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427">
-        <v>2291471</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428">
-        <v>2293870</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429">
-        <v>2296269</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430">
-        <v>2298668</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431">
-        <v>2301067</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432">
-        <v>2303466</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433">
-        <v>2323464</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434">
-        <v>2343463</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435">
-        <v>2363461</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436">
-        <v>2383460</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437">
-        <v>2385858</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438">
-        <v>2388257</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439">
-        <v>2390656</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440">
-        <v>2393055</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441">
-        <v>2395454</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442">
-        <v>2397853</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443">
-        <v>2400252</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444">
-        <v>2402651</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445">
-        <v>2405050</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446">
-        <v>2407449</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447">
-        <v>2409846</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448">
-        <v>2412245</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449">
-        <v>2414644</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450">
-        <v>2417043</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451">
-        <v>2419442</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452">
-        <v>2421841</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453">
-        <v>2424240</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454">
-        <v>2426639</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455">
-        <v>2429038</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456">
-        <v>2431437</v>
+        <v>2203584</v>
       </c>
     </row>
   </sheetData>
